--- a/2022月營收更新報表_yuchun.xlsx
+++ b/2022月營收更新報表_yuchun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\皓崴實習生計畫\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\皓崴實習生計畫\Desktop\REV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A66CED-797E-4D34-9D29-5E1C347BF0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8182BB78-3ED5-42C0-9077-8D6E74953D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{877DDE03-DF9B-4446-A5C9-D67742548F7B}"/>
+    <workbookView xWindow="5205" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{877DDE03-DF9B-4446-A5C9-D67742548F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -5663,11 +5663,11 @@
     <t>Y9999 加權指數</t>
   </si>
   <si>
-    <t>更新時間：2023/1/11 上午 10:36:55</t>
+    <t>-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>更新時間：2023/1/12 上午 08:48:14</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6085,9 +6085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB43F656-E8C9-4E3F-B900-B16162443026}">
   <dimension ref="A1:J1846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6103,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -6259,13 +6257,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B7" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C7" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -8488,7 +8486,7 @@
         <v>20230110</v>
       </c>
       <c r="G126" s="5">
-        <v>1594295</v>
+        <v>1586603</v>
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -39149,7 +39147,7 @@
       </c>
       <c r="F1805" s="5"/>
       <c r="G1805" s="5">
-        <v>51698</v>
+        <v>51690</v>
       </c>
       <c r="H1805" s="5"/>
       <c r="I1805" s="5"/>
@@ -39719,7 +39717,7 @@
       </c>
       <c r="F1843" s="5"/>
       <c r="G1843" s="5">
-        <v>3215412</v>
+        <v>3215405</v>
       </c>
       <c r="H1843" s="5"/>
       <c r="I1843" s="5"/>
@@ -39734,7 +39732,7 @@
       </c>
       <c r="F1844" s="5"/>
       <c r="G1844" s="5">
-        <v>2992194</v>
+        <v>2992187</v>
       </c>
       <c r="H1844" s="5"/>
       <c r="I1844" s="5"/>
@@ -39749,7 +39747,7 @@
       </c>
       <c r="F1845" s="5"/>
       <c r="G1845" s="5">
-        <v>3084692</v>
+        <v>3084684</v>
       </c>
       <c r="H1845" s="5"/>
       <c r="I1845" s="5"/>
@@ -39764,7 +39762,7 @@
       </c>
       <c r="F1846" s="5"/>
       <c r="G1846" s="5">
-        <v>3318114</v>
+        <v>3318106</v>
       </c>
       <c r="H1846" s="5"/>
       <c r="I1846" s="5"/>
